--- a/results_loading_times/instance_27_times.xlsx
+++ b/results_loading_times/instance_27_times.xlsx
@@ -457,10 +457,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -471,10 +471,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
@@ -485,16 +485,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -502,32 +502,32 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>7</v>
@@ -536,21 +536,21 @@
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
